--- a/03.crawler/09.FourSeasons/file/4.collate/crawler_2.xlsx
+++ b/03.crawler/09.FourSeasons/file/4.collate/crawler_2.xlsx
@@ -441,192 +441,192 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Part Number</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Partdesc_En</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Partlongdesc_En</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pop</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Qtyeach</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Vehicle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Picture</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Type_1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Core Depth Fraction</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Core Depth IN</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Core Depth MM</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Core Height Fraction</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Core Height IN</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Core Height MM</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Core Width Fraction</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Core Width IN</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Core Width MM</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Gasket / Seals?</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Inlet Dia. IN</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Inlet Gender</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Material</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Meets / Exceeds OEM?</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Mnt Flange Width IN</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Outlet Gender</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Overall Height IN</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Partdesc_En</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Partlongdesc_En</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Pop</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Qtyeach</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Service</t>
-        </is>
-      </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Site</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Style</t>
+          <t>Thermostat Included?</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Thermostat Included?</t>
+          <t>Tube 1 IN</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Tube 1 IN</t>
+          <t>Tube 2 IN</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Tube 2 IN</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Warranty</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Warranty</t>
+          <t>Json_Src</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Webbase</t>
+          <t>Json_Type</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Json_Src</t>
+          <t>Json_Info</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Json_Spec</t>
+          <t>Json_Specification</t>
         </is>
       </c>
     </row>
@@ -636,143 +636,138 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>44136</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>44136</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>Evaporator/Heater Core</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Tube &amp; Fin Evaporator Core/Heater Core Combination</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Freightliner Century Class (03-00)
 Freightliner Columbia (03-00)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://www.4s.com/en/ecatalog?part=44136&amp;type=p&amp;search=s</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
         <is>
           <t>4-1/2</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>4.500</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>114.3</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>9.000</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>228.6</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>5-1/2</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>5.500</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>139.7</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Evaporator Cores</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Evaporator/Heater Core</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Tube &amp; Fin Evaporator Core/Heater Core Combination</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Tube &amp; Fin</t>
+        </is>
+      </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Tube &amp; Fin</t>
+          <t>120 days</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>120 days</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=GHuPPJu1j/umw+S78RJNlyYF4nkLByFFki+PA/U85oa/EnOVuTBp5u72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu1cpqjmlIsodYhJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=GHuPPJu1j/umw+S78RJNlyYF4nkLByFFki+PA/U85oZkSp7JkGcaOV6DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazfHkodw5Eu8R", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=GHuPPJu1j/umw+S78RJNlyYF4nkLByFFki+PA/U85oYzLuBxGvTNMi6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j2rt4ulDSHMx"}</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>44136</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=GHuPPJu1j/umw+S78RJNlyYF4nkLByFFki+PA/U85oa/EnOVuTBp5u72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH0s4ES35O4ICQ==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=GHuPPJu1j/umw+S78RJNlyYF4nkLByFFki+PA/U85oZkSp7JkGcaOV6DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIrcFHE89f/1exDDtSObvr3", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=GHuPPJu1j/umw+S78RJNlyYF4nkLByFFki+PA/U85oYzLuBxGvTNMi6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02QtOtvoUEiNkpiQJSOi3Hj/"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Evaporator/Heater Core", "Partlongdesc_En": "Tube &amp; Fin Evaporator Core/Heater Core Combination", "Pop": "F", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -787,131 +782,130 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>86043</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>86043</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>Heater Core Tube</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Heater Core Tube</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nissan Frontier (04-01)
 Nissan Xterra (04-00)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://www.4s.com/en/ecatalog?part=86043&amp;type=p&amp;search=s</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Engine Coolant Components</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
         <is>
           <t>Engine Coolant Components</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>0.625</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>Plastic</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>0.182</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>5.996</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Heater Core Tube</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Heater Core Tube</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>Tube</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Tube</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
           <t>Not Included</t>
         </is>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Heater Core</t>
+        </is>
+      </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Heater Core</t>
+          <t>120 days</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>120 days</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=MbH22HTALY7PbBfXAx5XNiYF4nkLByFFki+PA/U85oY1ryuS+vCHPe72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu1l5z+IV8C/J4hJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=MbH22HTALY7PbBfXAx5XNiYF4nkLByFFki+PA/U85obFJDT5DBN2Y16DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96ry3E+e8ZIWUu/Ch1jOxEF4", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=MbH22HTALY7PbBfXAx5XNiYF4nkLByFFki+PA/U85obFJDT5DBN2Y5IGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96ry3E+e8ZIWUu/Ch1jOxEF4", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=MbH22HTALY7PbBfXAx5XNiYF4nkLByFFki+PA/U85oaqy1HX7YKw9PFN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1cg0v5LBtqzxiRMRHvec/n0", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=MbH22HTALY7PbBfXAx5XNiYF4nkLByFFki+PA/U85oYqkHfanlZtuukBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96ry3E+e8ZIWUu/Ch1jOxEF4", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=MbH22HTALY7PbBfXAx5XNiYF4nkLByFFki+PA/U85oaaR7Gxs+pmBS6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1cg0v5LBtqzxiRMRHvec/n0", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=MbH22HTALY7PbBfXAx5XNiYF4nkLByFFki+PA/U85oYXv1F9oE8UX6Xl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96ry3E+e8ZIWUu/Ch1jOxEF4"}</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>86043</t>
+          <t>{"0": "Engine Coolant Components"}</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=MbH22HTALY7PbBfXAx5XNiYF4nkLByFFki+PA/U85oY1ryuS+vCHPe72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH24rSGl5x7ojQ==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=MbH22HTALY7PbBfXAx5XNiYF4nkLByFFki+PA/U85obFJDT5DBN2Y16DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIZ7vkH1NvP4exDDtSObvr3", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=MbH22HTALY7PbBfXAx5XNiYF4nkLByFFki+PA/U85obFJDT5DBN2Y5IGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIZ7vkH1NvP4exDDtSObvr3", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=MbH22HTALY7PbBfXAx5XNiYF4nkLByFFki+PA/U85oaqy1HX7YKw9PFN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02TZIjllKu+K+5iQJSOi3Hj/", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=MbH22HTALY7PbBfXAx5XNiYF4nkLByFFki+PA/U85oYqkHfanlZtuukBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIZ7vkH1NvP4exDDtSObvr3", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=MbH22HTALY7PbBfXAx5XNiYF4nkLByFFki+PA/U85oaaR7Gxs+pmBS6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02TZIjllKu+K+5iQJSOi3Hj/", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=MbH22HTALY7PbBfXAx5XNiYF4nkLByFFki+PA/U85oYXv1F9oE8UX6Xl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIZ7vkH1NvP4exDDtSObvr3"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Heater Core Tube", "Partlongdesc_En": "Heater Core Tube", "Pop": "D", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -926,15 +920,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>90001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>90001</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>Heater Core /Aluminum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Aluminum Heater Core</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ford Expedition (01-97)
 Ford F-150 (03-97)
@@ -946,61 +958,53 @@
 Lincoln Navigator (02-98)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.4s.com/en/ecatalog?part=90001&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1-7/8</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1.875</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
+          <t>https://www.4s.com/en/ecatalog?part=93001&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Heater Cores</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1-7/8</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1.875</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>7-1/4</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>7.250</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>7-1/4</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>7.250</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
         <is>
           <t>Heater Cores</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Aluminum</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -1008,67 +1012,56 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr">
         <is>
+          <t>Aluminum</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Aluminum Heater Core</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
           <t>Heater Core /Aluminum</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Aluminum Heater Core</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AB4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>Aluminum Heater Core</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0.625</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0.625</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Heater Core /Aluminum</t>
+          <t>1 year/12,000 miles</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>1 year/12,000 miles</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4j6u1XXvT2GlSYF4nkLByFFki+PA/U85oYEvW76Wse2de72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu2FVkiFJiOhU4hJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4j6u1XXvT2GlSYF4nkLByFFki+PA/U85obJW1lqzOPFfF6DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazYP6QYtWFgUK", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4j6u1XXvT2GlSYF4nkLByFFki+PA/U85obJW1lqzOPFfJIGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazYP6QYtWFgUK", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4j6u1XXvT2GlSYF4nkLByFFki+PA/U85oZ7Lcg1baYNS/FN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j70GxhkIZ7wr", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4j6u1XXvT2GlSYF4nkLByFFki+PA/U85ob7EHvnyqI+8ekBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazYP6QYtWFgUK", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4j6u1XXvT2GlSYF4nkLByFFki+PA/U85oZIk0bWyc4nDi6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j70GxhkIZ7wr", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4j6u1XXvT2GlSYF4nkLByFFki+PA/U85oZ1CKsjeOrmfC6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j70GxhkIZ7wr", "7": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4j6u1XXvT2GlSYF4nkLByFFki+PA/U85obKmgtBPim7+KXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazYP6QYtWFgUK"}</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>93001</t>
+          <t>{"0": "Heater Cores"}</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4j6u1XXvT2GlSYF4nkLByFFki+PA/U85oYEvW76Wse2de72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH0s4ES35O4ICQ==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4j6u1XXvT2GlSYF4nkLByFFki+PA/U85obJW1lqzOPFfF6DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIrcFHE89f/1exDDtSObvr3", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4j6u1XXvT2GlSYF4nkLByFFki+PA/U85obJW1lqzOPFfJIGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIrcFHE89f/1exDDtSObvr3", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4j6u1XXvT2GlSYF4nkLByFFki+PA/U85oZ7Lcg1baYNS/FN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02QtOtvoUEiNkpiQJSOi3Hj/", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4j6u1XXvT2GlSYF4nkLByFFki+PA/U85ob7EHvnyqI+8ekBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIrcFHE89f/1exDDtSObvr3", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4j6u1XXvT2GlSYF4nkLByFFki+PA/U85oZIk0bWyc4nDi6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02QtOtvoUEiNkpiQJSOi3Hj/", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4j6u1XXvT2GlSYF4nkLByFFki+PA/U85oZ1CKsjeOrmfC6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02QtOtvoUEiNkpiQJSOi3Hj/", "7": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4j6u1XXvT2GlSYF4nkLByFFki+PA/U85obKmgtBPim7+KXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIrcFHE89f/1exDDtSObvr3"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Heater Core /Aluminum", "Partlongdesc_En": "Aluminum Heater Core", "Pop": "A", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -1083,74 +1076,84 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>90002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>90002</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Heater Core /Aluminum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Aluminum Heater Core</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>Nissan Altima (97-93)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://www.4s.com/en/ecatalog?part=90002&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1-1/4</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1.250</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
+          <t>https://www.4s.com/en/ecatalog?part=93002&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Heater Cores</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1-1/4</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>6.000</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>7-3/4</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>7.750</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
         <is>
           <t>Heater Cores</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Aluminum</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -1158,67 +1161,56 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
+          <t>Aluminum</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Aluminum Heater Core</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0.750</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0.750</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
           <t>Heater Core /Aluminum</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>Aluminum Heater Core</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>Aluminum Heater Core</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0.750</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0.750</t>
-        </is>
-      </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Heater Core /Aluminum</t>
+          <t>1 year/12,000 miles</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>1 year/12,000 miles</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4h4Kmah7Zhn6SYF4nkLByFFki+PA/U85oaDVdkxb8gOVO72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu1cpqjmlIsodYhJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4h4Kmah7Zhn6SYF4nkLByFFki+PA/U85oZS9PvS3bgDK16DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazfHkodw5Eu8R", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4h4Kmah7Zhn6SYF4nkLByFFki+PA/U85oZS9PvS3bgDK5IGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazfHkodw5Eu8R", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4h4Kmah7Zhn6SYF4nkLByFFki+PA/U85obQs3QqFwkS+OkBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazfHkodw5Eu8R", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4h4Kmah7Zhn6SYF4nkLByFFki+PA/U85oYIHdc2VtDxQC6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j2rt4ulDSHMx", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4h4Kmah7Zhn6SYF4nkLByFFki+PA/U85oYrW+Q7dVKk7S6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j2rt4ulDSHMx", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4h4Kmah7Zhn6SYF4nkLByFFki+PA/U85obx0JP2aQo2saXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazfHkodw5Eu8R"}</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>93002</t>
+          <t>{"0": "Heater Cores"}</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4h4Kmah7Zhn6SYF4nkLByFFki+PA/U85oaDVdkxb8gOVO72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH0s4ES35O4ICQ==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4h4Kmah7Zhn6SYF4nkLByFFki+PA/U85oZS9PvS3bgDK16DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIrcFHE89f/1exDDtSObvr3", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4h4Kmah7Zhn6SYF4nkLByFFki+PA/U85oZS9PvS3bgDK5IGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIrcFHE89f/1exDDtSObvr3", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4h4Kmah7Zhn6SYF4nkLByFFki+PA/U85obQs3QqFwkS+OkBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIrcFHE89f/1exDDtSObvr3", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4h4Kmah7Zhn6SYF4nkLByFFki+PA/U85oYIHdc2VtDxQC6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02QtOtvoUEiNkpiQJSOi3Hj/", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4h4Kmah7Zhn6SYF4nkLByFFki+PA/U85oYrW+Q7dVKk7S6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02QtOtvoUEiNkpiQJSOi3Hj/", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4h4Kmah7Zhn6SYF4nkLByFFki+PA/U85obx0JP2aQo2saXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIrcFHE89f/1exDDtSObvr3"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Heater Core /Aluminum", "Partlongdesc_En": "Aluminum Heater Core", "Pop": "F", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -1233,75 +1225,85 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>90003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>90003</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>Heater Core /Aluminum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aluminum Heater Core</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ford Expedition (98-97)
 Lincoln Navigator (98)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://www.4s.com/en/ecatalog?part=90003&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1-7/8</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1.875</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
+          <t>https://www.4s.com/en/ecatalog?part=93003&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Heater Cores</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1-7/8</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1.875</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>5-7/8</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>5.875</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>6-5/8</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>6.625</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
         <is>
           <t>Heater Cores</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Aluminum</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -1309,67 +1311,56 @@
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>Aluminum</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Aluminum Heater Core</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
           <t>Heater Core /Aluminum</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>Aluminum Heater Core</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>Aluminum Heater Core</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0.625</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0.625</t>
-        </is>
-      </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Heater Core /Aluminum</t>
+          <t>1 year/12,000 miles</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>1 year/12,000 miles</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hDB13TpFFB/SYF4nkLByFFki+PA/U85oZIq6jroCec/+72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu2FVkiFJiOhU4hJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hDB13TpFFB/SYF4nkLByFFki+PA/U85oblSuW8Pr96n16DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazYP6QYtWFgUK", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hDB13TpFFB/SYF4nkLByFFki+PA/U85oblSuW8Pr96n5IGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazYP6QYtWFgUK", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hDB13TpFFB/SYF4nkLByFFki+PA/U85oamh/8SkkQ3IukBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazYP6QYtWFgUK", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hDB13TpFFB/SYF4nkLByFFki+PA/U85oarqk5vEOyaeC6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j70GxhkIZ7wr", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hDB13TpFFB/SYF4nkLByFFki+PA/U85ob3KcO5LfGT7y6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j70GxhkIZ7wr", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hDB13TpFFB/SYF4nkLByFFki+PA/U85oYdgrFl9mLxGqXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazYP6QYtWFgUK"}</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>93003</t>
+          <t>{"0": "Heater Cores"}</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hDB13TpFFB/SYF4nkLByFFki+PA/U85oZIq6jroCec/+72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH0s4ES35O4ICQ==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hDB13TpFFB/SYF4nkLByFFki+PA/U85oblSuW8Pr96n16DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIrcFHE89f/1exDDtSObvr3", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hDB13TpFFB/SYF4nkLByFFki+PA/U85oblSuW8Pr96n5IGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIrcFHE89f/1exDDtSObvr3", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hDB13TpFFB/SYF4nkLByFFki+PA/U85oamh/8SkkQ3IukBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIrcFHE89f/1exDDtSObvr3", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hDB13TpFFB/SYF4nkLByFFki+PA/U85oarqk5vEOyaeC6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02QtOtvoUEiNkpiQJSOi3Hj/", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hDB13TpFFB/SYF4nkLByFFki+PA/U85ob3KcO5LfGT7y6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02QtOtvoUEiNkpiQJSOi3Hj/", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hDB13TpFFB/SYF4nkLByFFki+PA/U85oYdgrFl9mLxGqXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIrcFHE89f/1exDDtSObvr3"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Heater Core /Aluminum", "Partlongdesc_En": "Aluminum Heater Core", "Pop": "D", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -1384,80 +1375,90 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>90004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>90004</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>Heater Core /Aluminum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aluminum Heater Core</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ford Excursion (02-00)
 Ford F-250 Super Duty (03-99)
 Ford F-350 Super Duty (03-99)
 Ford F-450 Super Duty (03-98)
-Ford F-550 Super Duty (04-99)
-Ford F-650 (04-00)
-Ford F-750 (04-00)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://www.4s.com/en/ecatalog?part=90004&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1-7/8</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1.875</t>
+Ford F-550 Super Duty (03-99)
+Ford F-650 (03-00)
+Ford F-750 (03-00)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
+          <t>https://www.4s.com/en/ecatalog?part=93004&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Heater Cores</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1-7/8</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1.875</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>7-3/4</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>7.750</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>7-1/4</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>7.250</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
         <is>
           <t>Heater Cores</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Aluminum</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -1465,67 +1466,56 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
+          <t>Aluminum</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Aluminum Heater Core</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
           <t>Heater Core /Aluminum</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>Aluminum Heater Core</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>Aluminum Heater Core</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0.625</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0.625</t>
-        </is>
-      </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Heater Core /Aluminum</t>
+          <t>1 year/12,000 miles</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>1 year/12,000 miles</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4ioEhXDCYgK4CYF4nkLByFFki+PA/U85oZcvycFig+9Mu72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu1cpqjmlIsodYhJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4ioEhXDCYgK4CYF4nkLByFFki+PA/U85oYMdEghcvzzpl6DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazfHkodw5Eu8R", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4ioEhXDCYgK4CYF4nkLByFFki+PA/U85oYMdEghcvzzppIGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazfHkodw5Eu8R", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4ioEhXDCYgK4CYF4nkLByFFki+PA/U85oaAX203CUkJ6+kBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazfHkodw5Eu8R", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4ioEhXDCYgK4CYF4nkLByFFki+PA/U85oZbEHN6lwvcTS6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j2rt4ulDSHMx", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4ioEhXDCYgK4CYF4nkLByFFki+PA/U85obTpD3LS0xbSi6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j2rt4ulDSHMx", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4ioEhXDCYgK4CYF4nkLByFFki+PA/U85obaPJ3Q/izsYaXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazfHkodw5Eu8R"}</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>93004</t>
+          <t>{"0": "Heater Cores"}</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4ioEhXDCYgK4CYF4nkLByFFki+PA/U85oZcvycFig+9Mu72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH24rSGl5x7ojQ==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4ioEhXDCYgK4CYF4nkLByFFki+PA/U85oYMdEghcvzzpl6DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIZ7vkH1NvP4exDDtSObvr3", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4ioEhXDCYgK4CYF4nkLByFFki+PA/U85oYMdEghcvzzppIGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIZ7vkH1NvP4exDDtSObvr3", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4ioEhXDCYgK4CYF4nkLByFFki+PA/U85oaAX203CUkJ6+kBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIZ7vkH1NvP4exDDtSObvr3", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4ioEhXDCYgK4CYF4nkLByFFki+PA/U85oZbEHN6lwvcTS6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02TZIjllKu+K+5iQJSOi3Hj/", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4ioEhXDCYgK4CYF4nkLByFFki+PA/U85obTpD3LS0xbSi6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02TZIjllKu+K+5iQJSOi3Hj/", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4ioEhXDCYgK4CYF4nkLByFFki+PA/U85obaPJ3Q/izsYaXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIZ7vkH1NvP4exDDtSObvr3"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Heater Core /Aluminum", "Partlongdesc_En": "Aluminum Heater Core", "Pop": "A", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -1540,74 +1530,84 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>90005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>90005</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Heater Core /Aluminum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aluminum Heater Core</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>Lincoln Town Car (02-98)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>https://www.4s.com/en/ecatalog?part=90005&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1-7/8</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1.875</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
+          <t>https://www.4s.com/en/ecatalog?part=93005&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Heater Cores</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1-7/8</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1.875</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>7-1/4</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>7.250</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>7-1/4</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>7.250</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
         <is>
           <t>Heater Cores</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Aluminum</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -1615,67 +1615,56 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
+          <t>Aluminum</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Aluminum Heater Core</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0.750</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0.750</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
           <t>Heater Core /Aluminum</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>Aluminum Heater Core</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>Aluminum Heater Core</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0.750</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0.750</t>
-        </is>
-      </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Heater Core /Aluminum</t>
+          <t>1 year/12,000 miles</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>1 year/12,000 miles</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4htg+Je8z64/CYF4nkLByFFki+PA/U85oYf0842hRvhz+72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu0mo9w72ThkL4hJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4htg+Je8z64/CYF4nkLByFFki+PA/U85oaTm//0u4UsNV6DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96ry3E+e8ZIWUn3M41uR5iV4", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4htg+Je8z64/CYF4nkLByFFki+PA/U85oaTm//0u4UsNZIGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96ry3E+e8ZIWUn3M41uR5iV4", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4htg+Je8z64/CYF4nkLByFFki+PA/U85obIoS4/j11haOkBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96ry3E+e8ZIWUn3M41uR5iV4", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4htg+Je8z64/CYF4nkLByFFki+PA/U85oYrPrr+pYwwCy6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1cg0v5LBtqzxl41NvCN1KPV", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4htg+Je8z64/CYF4nkLByFFki+PA/U85oYhDXbNwyeMri6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1cg0v5LBtqzxl41NvCN1KPV", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4htg+Je8z64/CYF4nkLByFFki+PA/U85oYLXkPVmfGMBKXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96ry3E+e8ZIWUn3M41uR5iV4"}</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>93005</t>
+          <t>{"0": "Heater Cores"}</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4htg+Je8z64/CYF4nkLByFFki+PA/U85oYf0842hRvhz+72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH1RqHwv1oLU+w==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4htg+Je8z64/CYF4nkLByFFki+PA/U85oaTm//0u4UsNV6DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIJ0LMrE0jCh+xDDtSObvr3", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4htg+Je8z64/CYF4nkLByFFki+PA/U85oaTm//0u4UsNZIGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIJ0LMrE0jCh+xDDtSObvr3", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4htg+Je8z64/CYF4nkLByFFki+PA/U85obIoS4/j11haOkBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIJ0LMrE0jCh+xDDtSObvr3", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4htg+Je8z64/CYF4nkLByFFki+PA/U85oYrPrr+pYwwCy6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02Q2Acl9scOvnpiQJSOi3Hj/", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4htg+Je8z64/CYF4nkLByFFki+PA/U85oYhDXbNwyeMri6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02Q2Acl9scOvnpiQJSOi3Hj/", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4htg+Je8z64/CYF4nkLByFFki+PA/U85oYLXkPVmfGMBKXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIJ0LMrE0jCh+xDDtSObvr3"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Heater Core /Aluminum", "Partlongdesc_En": "Aluminum Heater Core", "Pop": "C", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
@@ -1690,15 +1679,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>90007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>90007</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>Heater Core /Aluminum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Aluminum Heater Core</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Ford Contour (95)
 Ford Sable (01-96)
@@ -1707,61 +1714,53 @@
 Mercury Sable (05-96)</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>https://www.4s.com/en/ecatalog?part=90007&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1-7/8</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1.875</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
+          <t>https://www.4s.com/en/ecatalog?part=93007&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Heater Cores</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1-7/8</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1.875</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>7-3/8</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>7.375</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>7-1/4</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>7.250</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
         <is>
           <t>Heater Cores</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Aluminum</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1769,67 +1768,56 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
+          <t>Aluminum</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Aluminum Heater Core</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
           <t>Heater Core /Aluminum</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>Aluminum Heater Core</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>Aluminum Heater Core</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0.625</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0.625</t>
-        </is>
-      </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Heater Core /Aluminum</t>
+          <t>1 year/12,000 miles</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>1 year/12,000 miles</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gdha/Eb8jlYCYF4nkLByFFki+PA/U85oYWSpGZr5xbeO72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu26j0xLbkQfgIhJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gdha/Eb8jlYCYF4nkLByFFki+PA/U85oaJp4p83P6Qf16DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazY5dehMGTHPc", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gdha/Eb8jlYCYF4nkLByFFki+PA/U85oaJp4p83P6Qf5IGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazY5dehMGTHPc", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gdha/Eb8jlYCYF4nkLByFFki+PA/U85oY7aN9gQT9VcOkBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazY5dehMGTHPc", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gdha/Eb8jlYCYF4nkLByFFki+PA/U85oaKvTH6Ry1Rli6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j0W0jbZ81G1R", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gdha/Eb8jlYCYF4nkLByFFki+PA/U85oZ2Hy/FwJjOwS6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j0W0jbZ81G1R", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gdha/Eb8jlYCYF4nkLByFFki+PA/U85oZoXccszK/8QaXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazY5dehMGTHPc"}</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>93007</t>
+          <t>{"0": "Heater Cores"}</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gdha/Eb8jlYCYF4nkLByFFki+PA/U85oYWSpGZr5xbeO72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH0aD3ygK0JJHg==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gdha/Eb8jlYCYF4nkLByFFki+PA/U85oaJp4p83P6Qf16DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIxD3qJctUFLuxDDtSObvr3", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gdha/Eb8jlYCYF4nkLByFFki+PA/U85oaJp4p83P6Qf5IGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIxD3qJctUFLuxDDtSObvr3", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gdha/Eb8jlYCYF4nkLByFFki+PA/U85oY7aN9gQT9VcOkBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIxD3qJctUFLuxDDtSObvr3", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gdha/Eb8jlYCYF4nkLByFFki+PA/U85oaKvTH6Ry1Rli6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02Re25VyhXmyrJiQJSOi3Hj/", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gdha/Eb8jlYCYF4nkLByFFki+PA/U85oZ2Hy/FwJjOwS6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02Re25VyhXmyrJiQJSOi3Hj/", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gdha/Eb8jlYCYF4nkLByFFki+PA/U85oZoXccszK/8QaXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIxD3qJctUFLuxDDtSObvr3"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Heater Core /Aluminum", "Partlongdesc_En": "Aluminum Heater Core", "Pop": "A", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
@@ -1844,15 +1832,33 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>90009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>90009</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>Heater Core /Aluminum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Aluminum Heater Core</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Ford Excursion (05-00)
 Ford Expedition (06-99)
@@ -1866,61 +1872,53 @@
 Mercury Mountaineer (10-02)</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>https://www.4s.com/en/ecatalog?part=90009&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1-7/8</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1.875</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
+          <t>https://www.4s.com/en/ecatalog?part=93009&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Heater Cores</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1-7/8</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.875</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>5-7/8</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>5.875</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>6-5/8</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>6.625</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
         <is>
           <t>Heater Cores</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Aluminum</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1928,67 +1926,56 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
+          <t>Aluminum</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Aluminum Heater Core</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
           <t>Heater Core /Aluminum</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>Aluminum Heater Core</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>Aluminum Heater Core</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0.625</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0.625</t>
-        </is>
-      </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Heater Core /Aluminum</t>
+          <t>1 year/12,000 miles</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>1 year/12,000 miles</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gTthA+dfiRcCYF4nkLByFFki+PA/U85oYcLicDki+0Oe72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu1cpqjmlIsodYhJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gTthA+dfiRcCYF4nkLByFFki+PA/U85oaiXDhNUDdrxl6DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazfHkodw5Eu8R", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gTthA+dfiRcCYF4nkLByFFki+PA/U85oaiXDhNUDdrxpIGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazfHkodw5Eu8R", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gTthA+dfiRcCYF4nkLByFFki+PA/U85oY14w1w5uLE8ukBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazfHkodw5Eu8R", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gTthA+dfiRcCYF4nkLByFFki+PA/U85oZECQirHfWK4C6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j2rt4ulDSHMx", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gTthA+dfiRcCYF4nkLByFFki+PA/U85oaJrSGFo0SPQaXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazfHkodw5Eu8R", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gTthA+dfiRcCYF4nkLByFFki+PA/U85oY4u8T9oJTZzC6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j2rt4ulDSHMx"}</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>93009</t>
+          <t>{"0": "Heater Cores"}</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gTthA+dfiRcCYF4nkLByFFki+PA/U85oYcLicDki+0Oe72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH24rSGl5x7ojQ==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gTthA+dfiRcCYF4nkLByFFki+PA/U85oaiXDhNUDdrxl6DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIZ7vkH1NvP4exDDtSObvr3", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gTthA+dfiRcCYF4nkLByFFki+PA/U85oaiXDhNUDdrxpIGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIZ7vkH1NvP4exDDtSObvr3", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gTthA+dfiRcCYF4nkLByFFki+PA/U85oY14w1w5uLE8ukBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIZ7vkH1NvP4exDDtSObvr3", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gTthA+dfiRcCYF4nkLByFFki+PA/U85oZECQirHfWK4C6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02TZIjllKu+K+5iQJSOi3Hj/", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gTthA+dfiRcCYF4nkLByFFki+PA/U85oaJrSGFo0SPQaXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIZ7vkH1NvP4exDDtSObvr3", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4gTthA+dfiRcCYF4nkLByFFki+PA/U85oY4u8T9oJTZzC6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02TZIjllKu+K+5iQJSOi3Hj/"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Heater Core /Aluminum", "Partlongdesc_En": "Aluminum Heater Core", "Pop": "C", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
@@ -2003,15 +1990,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>90010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>90010</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>Heater Core /Aluminum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Aluminum Heater Core</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Ford Explorer (01-95)
 Ford Explorer Sport (03-01)
@@ -2025,61 +2030,53 @@
 Mercury Mountaineer (01-97)</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>https://www.4s.com/en/ecatalog?part=90010&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1-7/8</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1.875</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
+          <t>https://www.4s.com/en/ecatalog?part=93010&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Heater Cores</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1-7/8</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1.875</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>7-1/4</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>7.250</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>5-7/8</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>5.875</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
         <is>
           <t>Heater Cores</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Aluminum</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -2087,67 +2084,56 @@
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr">
         <is>
+          <t>Aluminum</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Aluminum Heater Core</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
           <t>Heater Core /Aluminum</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>Aluminum Heater Core</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>Aluminum Heater Core</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0.625</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0.625</t>
-        </is>
-      </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Heater Core /Aluminum</t>
+          <t>1 year/12,000 miles</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>1 year/12,000 miles</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hHIFhGvwK9KiYF4nkLByFFki+PA/U85obb3vAwJRNdqO72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu1cpqjmlIsodYhJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hHIFhGvwK9KiYF4nkLByFFki+PA/U85oay/fc1+hvUAV6DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazfHkodw5Eu8R", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hHIFhGvwK9KiYF4nkLByFFki+PA/U85oay/fc1+hvUAZIGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazfHkodw5Eu8R", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hHIFhGvwK9KiYF4nkLByFFki+PA/U85oaXiG4iiPN1g+kBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazfHkodw5Eu8R", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hHIFhGvwK9KiYF4nkLByFFki+PA/U85oYmpf90kyo4li6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j2rt4ulDSHMx", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hHIFhGvwK9KiYF4nkLByFFki+PA/U85oYrRcmgD71oni6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j2rt4ulDSHMx", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hHIFhGvwK9KiYF4nkLByFFki+PA/U85oZttTj+DcUzQ6Xl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazfHkodw5Eu8R"}</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>93010</t>
+          <t>{"0": "Heater Cores"}</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hHIFhGvwK9KiYF4nkLByFFki+PA/U85obb3vAwJRNdqO72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH0aD3ygK0JJHg==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hHIFhGvwK9KiYF4nkLByFFki+PA/U85oay/fc1+hvUAV6DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIxD3qJctUFLuxDDtSObvr3", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hHIFhGvwK9KiYF4nkLByFFki+PA/U85oay/fc1+hvUAZIGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIxD3qJctUFLuxDDtSObvr3", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hHIFhGvwK9KiYF4nkLByFFki+PA/U85oaXiG4iiPN1g+kBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIxD3qJctUFLuxDDtSObvr3", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hHIFhGvwK9KiYF4nkLByFFki+PA/U85oYmpf90kyo4li6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02Re25VyhXmyrJiQJSOi3Hj/", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hHIFhGvwK9KiYF4nkLByFFki+PA/U85oYrRcmgD71oni6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02Re25VyhXmyrJiQJSOi3Hj/", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=odWM2GIai4hHIFhGvwK9KiYF4nkLByFFki+PA/U85oZttTj+DcUzQ6Xl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiIxD3qJctUFLuxDDtSObvr3"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Heater Core /Aluminum", "Partlongdesc_En": "Aluminum Heater Core", "Pop": "A", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
